--- a/Nozzle-CC/misc_docs/Converse Engine v1.xlsx
+++ b/Nozzle-CC/misc_docs/Converse Engine v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyameaama/Documents/A-OneSpace/Converse-Engine/Nozzle-CC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyameaama/Documents/A-OneSpace/Converse-Engine/Nozzle-CC/misc_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F93DB-7383-E04E-A924-A7783BA35281}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA587D19-45C4-E349-AD75-D2ABE69F231A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6B94F6F9-44B0-CC46-BCE3-E21706DCCC2F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{6B94F6F9-44B0-CC46-BCE3-E21706DCCC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="4" r:id="rId1"/>
@@ -467,14 +467,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,16 +590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>202121</xdr:rowOff>
+      <xdr:rowOff>202120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>178791</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -622,8 +622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="5282121"/>
-          <a:ext cx="2336800" cy="383070"/>
+          <a:off x="0" y="5282120"/>
+          <a:ext cx="5461000" cy="915479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0A97E6-915A-D143-A6DF-A3F09B431841}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1307,15 +1307,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="K25:L25"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
@@ -1327,6 +1318,15 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C10" sqref="C10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,7 +1349,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="15"/>
@@ -1359,14 +1359,14 @@
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="F2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1564,23 +1564,23 @@
       <c r="A22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="K22" s="18">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="K22" s="16">
         <v>263.38618498858511</v>
       </c>
-      <c r="L22" s="18"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="14">
         <f>SQRT(Constants!K29*Constants!K25*Constants!K23*Constants!B11)/Constants!K25*SQRT(POWER(2/Constants!K25+1,Constants!K25+1/Constants!K25-1))</f>
         <v>24015.852186207791</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="16">
         <v>2.5982911572999998</v>
       </c>
       <c r="O22" s="15"/>
@@ -1589,12 +1589,12 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1658,8 +1658,8 @@
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="N37">
         <f>K22*K4/Constants!B13</f>
         <v>2.8561047273337086</v>
@@ -1667,6 +1667,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C18:H18"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="K25:L25"/>
@@ -1683,20 +1697,6 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C16:H16"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1708,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A288A652-25F1-A940-BC3C-A6B5AB550EFC}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
@@ -2056,6 +2056,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="K38:L38"/>
@@ -2068,30 +2092,6 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
